--- a/data/respirometry/shallow/final_rates/600_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/600_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.2623206997639246</v>
+        <v>-0.2462948787810065</v>
       </c>
       <c r="AB2">
-        <v>-0.01049282799055698</v>
+        <v>-1005.85874068368</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.01049282799055698</v>
+        <v>-1005.85874068368</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.277384502206189</v>
+        <v>-0.2680607270169032</v>
       </c>
       <c r="AB3">
-        <v>-0.01109538008824756</v>
+        <v>-1800.305174749309</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.01109538008824756</v>
+        <v>-1800.305174749309</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1836621707873206</v>
+        <v>-0.1747274048841794</v>
       </c>
       <c r="AB4">
-        <v>-0.007346486831492824</v>
+        <v>-786.0661353326996</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007346486831492824</v>
+        <v>-786.0661353326996</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2904089981941142</v>
+        <v>-0.2668150213665862</v>
       </c>
       <c r="AB5">
-        <v>-0.01161635992776457</v>
+        <v>-1054.841463422884</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01161635992776457</v>
+        <v>-1054.841463422884</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.3250062335601515</v>
+        <v>-0.3043911547471467</v>
       </c>
       <c r="AB6">
-        <v>-0.01300024934240606</v>
+        <v>-1643.928884143309</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.01300024934240606</v>
+        <v>-1643.928884143309</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.2412161910846787</v>
+        <v>-0.2232340414394441</v>
       </c>
       <c r="AB7">
-        <v>-0.009648647643387149</v>
+        <v>-690.6360042576111</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.009648647643387149</v>
+        <v>-690.6360042576111</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0004494580790936872</v>
-      </c>
-      <c r="AB8">
-        <v>1.797832316374749E-05</v>
+        <v>0.0004493416693347922</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>1.797832316374749E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.3250092320720224</v>
+        <v>0.3051536134507343</v>
       </c>
       <c r="AB9">
-        <v>0.0130003692828809</v>
+        <v>1246.235532219683</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.0130003692828809</v>
+        <v>1246.235532219683</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.3449829547942734</v>
+        <v>0.3333869806534889</v>
       </c>
       <c r="AB10">
-        <v>0.01379931819177094</v>
+        <v>2239.038568401245</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.01379931819177094</v>
+        <v>2239.038568401245</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.1894330387229059</v>
+        <v>0.18021753262247</v>
       </c>
       <c r="AB11">
-        <v>0.007577321548916235</v>
+        <v>810.765200122116</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.007577321548916235</v>
+        <v>810.765200122116</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.3479807514240377</v>
+        <v>0.3197094174206862</v>
       </c>
       <c r="AB12">
-        <v>0.01391923005696151</v>
+        <v>1263.9571341029</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01391923005696151</v>
+        <v>1263.9571341029</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.4199811617075505</v>
+        <v>0.3933418426589942</v>
       </c>
       <c r="AB13">
-        <v>0.01679924646830202</v>
+        <v>2124.325908965443</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.01679924646830202</v>
+        <v>2124.325908965443</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.2946417418718517</v>
+        <v>0.2726768320113346</v>
       </c>
       <c r="AB14">
-        <v>0.01178566967487407</v>
+        <v>843.6008975137293</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.01178566967487407</v>
+        <v>843.6008975137293</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.0001642381233221436</v>
-      </c>
-      <c r="AB15">
-        <v>6.569524932885743E-06</v>
+        <v>0.0001641955856056655</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>6.569524932885743E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
